--- a/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>14.09246320819426</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.7223882864291703</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2865576572302282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1359011226912011</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.611494526868577</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.342302997364438</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.9527902356820649</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3475976934985399</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4209129885157118</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.411671512147268</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>8.056092228949829</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.9712759750021939</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2859287179783679</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5190875794184199</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.848823562284922</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
@@ -586,19 +586,19 @@
         <v>0.2191780821917808</v>
       </c>
       <c r="D4" t="n">
-        <v>121698.1112984824</v>
+        <v>121740.8710009183</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004128372446584004</v>
+        <v>0.001914870283549103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2734574224541041</v>
+        <v>0.1977593504539668</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.65418556957281</v>
+        <v>-1.066475700650384</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6548255497086</v>
+        <v>10.99633228977906</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.2958904109589041</v>
       </c>
       <c r="D5" t="n">
-        <v>122464.6743444607</v>
+        <v>122452.110392334</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004764837660995527</v>
+        <v>-0.00486428498044088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.208461445880669</v>
+        <v>0.2076432377418609</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6237558441110856</v>
+        <v>-0.5837990147931015</v>
       </c>
       <c r="H5" t="n">
-        <v>7.343928457239815</v>
+        <v>7.054435814165112</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3726027397260274</v>
       </c>
       <c r="D6" t="n">
-        <v>123001.2212401229</v>
+        <v>122983.8712583094</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01585451649412337</v>
+        <v>-0.01658695170572346</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2397795220318818</v>
+        <v>0.243351302435544</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.149068357309844</v>
+        <v>-1.266485509600165</v>
       </c>
       <c r="H6" t="n">
-        <v>10.16919945939624</v>
+        <v>11.32052294318789</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7945205479452054</v>
       </c>
       <c r="D8" t="n">
-        <v>124759.8597330695</v>
+        <v>124668.1345378395</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03598347076392049</v>
+        <v>-0.03825809378727953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2073319998081692</v>
+        <v>0.2137051312979744</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.734024974803751</v>
+        <v>-0.8770110179930539</v>
       </c>
       <c r="H8" t="n">
-        <v>6.161696886825045</v>
+        <v>6.970634387171684</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8712328767123287</v>
       </c>
       <c r="D9" t="n">
-        <v>127008.9167523475</v>
+        <v>127031.0048926685</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06710222552136369</v>
+        <v>-0.06098362685232529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3742511531672784</v>
+        <v>0.3292842029811078</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.428236088048682</v>
+        <v>-1.612580553969292</v>
       </c>
       <c r="H9" t="n">
-        <v>18.1574691960373</v>
+        <v>10.82731377842855</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.120547945205479</v>
       </c>
       <c r="D10" t="n">
-        <v>128186.1459208691</v>
+        <v>128190.0269136586</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1013310955431655</v>
+        <v>-0.1009731354988247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4269890587737859</v>
+        <v>0.4245909280697951</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.942897756585326</v>
+        <v>-1.911376404514875</v>
       </c>
       <c r="H10" t="n">
-        <v>10.36493451342565</v>
+        <v>10.07804588867599</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.367123287671233</v>
       </c>
       <c r="D11" t="n">
-        <v>129990.2854187554</v>
+        <v>129973.5368707666</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1700839878047514</v>
+        <v>-0.1761469234126501</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6839495562505459</v>
+        <v>0.7307554137921819</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.359558729403701</v>
+        <v>-2.587271510301969</v>
       </c>
       <c r="H11" t="n">
-        <v>10.68285320194698</v>
+        <v>12.63140653012571</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D13" t="n">
-        <v>120158.3092449243</v>
+        <v>120154.6788324331</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05231760071335224</v>
+        <v>0.05215863132567373</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1187220585521312</v>
+        <v>0.1182420371903864</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7161752040329724</v>
+        <v>-0.75575921568768</v>
       </c>
       <c r="H13" t="n">
-        <v>7.37597051727992</v>
+        <v>7.109740548134341</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2329640434187458</v>
@@ -978,19 +978,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D15" t="n">
-        <v>120143.5611551272</v>
+        <v>120175.6652923589</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04501611302055917</v>
+        <v>0.0479361702042674</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1488963164593585</v>
+        <v>0.1298370840022972</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.330768611489844</v>
+        <v>-0.7928914917491404</v>
       </c>
       <c r="H15" t="n">
-        <v>29.40154959864421</v>
+        <v>10.8175258932869</v>
       </c>
       <c r="I15" t="n">
         <v>-0.3272532134785859</v>
@@ -1020,19 +1020,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D16" t="n">
-        <v>120138.4452004423</v>
+        <v>120154.9150019117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1052813090661669</v>
+        <v>0.1078258597277365</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1575016678299012</v>
+        <v>0.1356155457900996</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.576679268835505</v>
+        <v>-0.2837711364968449</v>
       </c>
       <c r="H16" t="n">
-        <v>41.8034500157741</v>
+        <v>4.341558542499821</v>
       </c>
       <c r="I16" t="n">
         <v>0.1679803123495031</v>
@@ -1062,19 +1062,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D17" t="n">
-        <v>120118.9845256807</v>
+        <v>120122.5375086681</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08453118170012573</v>
+        <v>0.08488983322559919</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1082293907497239</v>
+        <v>0.1075199947981904</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9519663325514737</v>
+        <v>-0.9228967536253245</v>
       </c>
       <c r="H17" t="n">
-        <v>8.635670697334119</v>
+        <v>8.495708435479653</v>
       </c>
       <c r="I17" t="n">
         <v>0.04328135768856915</v>
@@ -1188,19 +1188,19 @@
         <v>0.08493150684931507</v>
       </c>
       <c r="D20" t="n">
-        <v>120907.2338090403</v>
+        <v>120968.5900089347</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02741307571588875</v>
+        <v>0.03027171064179338</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1544293486336321</v>
+        <v>0.1447422973101908</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6296976561363055</v>
+        <v>-0.2453646266519291</v>
       </c>
       <c r="H20" t="n">
-        <v>8.056092228949829</v>
+        <v>6.073245055303178</v>
       </c>
       <c r="I20" t="n">
         <v>-0.9712759750021939</v>

--- a/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.13639132084934</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.9070973970788317</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2471623738047388</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1650816019040287</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.728355744582294</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDQMOMENT_20250812.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>10.99633228977906</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.8873889631228897</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4877282578269154</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5675000282201691</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.89667423575272</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
